--- a/data/maple.xlsx
+++ b/data/maple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/hans/workspace/Maple/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F217A685-729A-BB46-B9A2-36597B360047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F411DE06-2D85-FA48-9CDC-40CFAF6B7ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{2377AB8F-E0E7-844C-9123-56B55A979ED9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{2377AB8F-E0E7-844C-9123-56B55A979ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="95">
   <si>
     <t>-14일</t>
   </si>
@@ -314,6 +315,24 @@
   <si>
     <t>겨울(12~익년2월)</t>
   </si>
+  <si>
+    <t>11일</t>
+  </si>
+  <si>
+    <t>-15일</t>
+  </si>
+  <si>
+    <t>발아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평년비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -363,7 +382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,6 +399,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1488,7 +1513,7 @@
   <dimension ref="A1:E414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -8539,7 +8564,7 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -14109,7 +14134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F34CAE-EFD5-8446-A22B-B79A177480AD}">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -16547,4 +16572,671 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73CA918-A957-3046-B210-B982F44AADCF}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6">
+        <v>1989</v>
+      </c>
+      <c r="B2" s="7">
+        <v>32583</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7">
+        <v>32588</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6">
+        <v>1990</v>
+      </c>
+      <c r="B3" s="7">
+        <v>32943</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7">
+        <v>32951</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6">
+        <v>1991</v>
+      </c>
+      <c r="B4" s="7">
+        <v>33324</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>33332</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6">
+        <v>1992</v>
+      </c>
+      <c r="B5" s="7">
+        <v>33672</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>33683</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6">
+        <v>1993</v>
+      </c>
+      <c r="B6" s="7">
+        <v>34037</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>34057</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6">
+        <v>1994</v>
+      </c>
+      <c r="B7" s="7">
+        <v>34414</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>34427</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
+        <v>1995</v>
+      </c>
+      <c r="B8" s="7">
+        <v>34771</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>34782</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6">
+        <v>1996</v>
+      </c>
+      <c r="B9" s="7">
+        <v>35146</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>35160</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
+        <v>1997</v>
+      </c>
+      <c r="B10" s="7">
+        <v>35502</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7">
+        <v>35517</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
+        <v>1998</v>
+      </c>
+      <c r="B11" s="7">
+        <v>35863</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>35875</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6">
+        <v>1999</v>
+      </c>
+      <c r="B12" s="7">
+        <v>36238</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7">
+        <v>36250</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="7">
+        <v>36610</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7">
+        <v>36616</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B14" s="7">
+        <v>36976</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7">
+        <v>36984</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B15" s="7">
+        <v>37330</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7">
+        <v>37336</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B16" s="7">
+        <v>37698</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7">
+        <v>37708</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B17" s="7">
+        <v>38062</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>38071</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="7">
+        <v>38440</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="7">
+        <v>38448</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="7">
+        <v>38799</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="7">
+        <v>38804</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B20" s="7">
+        <v>39150</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>39164</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B21" s="7">
+        <v>39527</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7">
+        <v>39530</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B22" s="7">
+        <v>39889</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7">
+        <v>39892</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B23" s="7">
+        <v>40240</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="7">
+        <v>40264</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B24" s="7">
+        <v>40624</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="7">
+        <v>40638</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B25" s="7">
+        <v>40988</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>41003</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B26" s="7">
+        <v>41351</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="7">
+        <v>41367</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B27" s="7">
+        <v>41715</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="7">
+        <v>41723</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B28" s="7">
+        <v>42082</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7">
+        <v>42088</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="7">
+        <v>42448</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7">
+        <v>42455</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B30" s="7">
+        <v>42812</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="7">
+        <v>42824</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="7">
+        <v>43174</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>43186</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B32" s="7">
+        <v>43533</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>43545</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B33" s="7">
+        <v>43903</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7">
+        <v>43912</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="7">
+        <v>44266</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7">
+        <v>44274</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/maple.xlsx
+++ b/data/maple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/hans/workspace/Maple/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F411DE06-2D85-FA48-9CDC-40CFAF6B7ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447B2A38-084D-A24E-A0C9-B19CE18FE536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{2377AB8F-E0E7-844C-9123-56B55A979ED9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{2377AB8F-E0E7-844C-9123-56B55A979ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="106">
   <si>
     <t>-14일</t>
   </si>
@@ -333,12 +334,45 @@
     <t>개화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>통계표명:</t>
+  </si>
+  <si>
+    <t>일조시간 추이</t>
+  </si>
+  <si>
+    <t>단위:</t>
+  </si>
+  <si>
+    <t>시간</t>
+  </si>
+  <si>
+    <t>년 합계</t>
+  </si>
+  <si>
+    <t>봄</t>
+  </si>
+  <si>
+    <t>여름</t>
+  </si>
+  <si>
+    <t>가을</t>
+  </si>
+  <si>
+    <t>겨울</t>
+  </si>
+  <si>
+    <t>출처:</t>
+  </si>
+  <si>
+    <t>기상청 기상연보, 기상자료개방포털</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -359,21 +393,90 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -382,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,6 +509,25 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8564,7 +8686,7 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -9626,7 +9748,7 @@
   <dimension ref="A1:C409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -16578,8 +16700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73CA918-A957-3046-B210-B982F44AADCF}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -17239,4 +17361,762 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93040F24-14B4-5B4C-A31C-645C57383900}">
+  <dimension ref="A1:AH9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11">
+        <v>1988</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1989</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1990</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1991</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1992</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1993</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1994</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1995</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1996</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1997</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1998</v>
+      </c>
+      <c r="M3" s="11">
+        <v>1999</v>
+      </c>
+      <c r="N3" s="11">
+        <v>2000</v>
+      </c>
+      <c r="O3" s="11">
+        <v>2001</v>
+      </c>
+      <c r="P3" s="11">
+        <v>2002</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>2003</v>
+      </c>
+      <c r="R3" s="11">
+        <v>2004</v>
+      </c>
+      <c r="S3" s="11">
+        <v>2005</v>
+      </c>
+      <c r="T3" s="11">
+        <v>2006</v>
+      </c>
+      <c r="U3" s="11">
+        <v>2007</v>
+      </c>
+      <c r="V3" s="11">
+        <v>2008</v>
+      </c>
+      <c r="W3" s="11">
+        <v>2009</v>
+      </c>
+      <c r="X3" s="11">
+        <v>2010</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>2011</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>2012</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>2013</v>
+      </c>
+      <c r="AB3" s="11">
+        <v>2014</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>2015</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>2016</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>2017</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>2018</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>2019</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2326.1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2133.5</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2003.8</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2199.4</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2151.1999999999998</v>
+      </c>
+      <c r="G4" s="13">
+        <v>2069</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2426.8000000000002</v>
+      </c>
+      <c r="I4" s="13">
+        <v>2347.9</v>
+      </c>
+      <c r="J4" s="13">
+        <v>2241.9</v>
+      </c>
+      <c r="K4" s="13">
+        <v>2332.3000000000002</v>
+      </c>
+      <c r="L4" s="13">
+        <v>2022.3</v>
+      </c>
+      <c r="M4" s="13">
+        <v>2224.6</v>
+      </c>
+      <c r="N4" s="13">
+        <v>2096.8000000000002</v>
+      </c>
+      <c r="O4" s="13">
+        <v>2153</v>
+      </c>
+      <c r="P4" s="13">
+        <v>2038.3</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>1858.3</v>
+      </c>
+      <c r="R4" s="13">
+        <v>2247.6</v>
+      </c>
+      <c r="S4" s="13">
+        <v>2218.5</v>
+      </c>
+      <c r="T4" s="13">
+        <v>1997.1</v>
+      </c>
+      <c r="U4" s="13">
+        <v>1969.1</v>
+      </c>
+      <c r="V4" s="13">
+        <v>2155.1</v>
+      </c>
+      <c r="W4" s="13">
+        <v>2155.1999999999998</v>
+      </c>
+      <c r="X4" s="13">
+        <v>2020.9</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>2091.1</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>2276</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>2420.1999999999998</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>2341.6</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>2388.4</v>
+      </c>
+      <c r="AD4" s="13">
+        <v>2340.5</v>
+      </c>
+      <c r="AE4" s="13">
+        <v>2578.1999999999998</v>
+      </c>
+      <c r="AF4" s="13">
+        <v>2498.4</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>2492.3000000000002</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>2368.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="14">
+        <v>675.2</v>
+      </c>
+      <c r="C5" s="14">
+        <v>676.3</v>
+      </c>
+      <c r="D5" s="14">
+        <v>563.1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>647</v>
+      </c>
+      <c r="F5" s="14">
+        <v>595.1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>643.79999999999995</v>
+      </c>
+      <c r="H5" s="14">
+        <v>633.29999999999995</v>
+      </c>
+      <c r="I5" s="14">
+        <v>647.70000000000005</v>
+      </c>
+      <c r="J5" s="14">
+        <v>653.79999999999995</v>
+      </c>
+      <c r="K5" s="14">
+        <v>626.79999999999995</v>
+      </c>
+      <c r="L5" s="14">
+        <v>587.4</v>
+      </c>
+      <c r="M5" s="14">
+        <v>666.1</v>
+      </c>
+      <c r="N5" s="14">
+        <v>609.20000000000005</v>
+      </c>
+      <c r="O5" s="14">
+        <v>639.1</v>
+      </c>
+      <c r="P5" s="14">
+        <v>585.20000000000005</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>533</v>
+      </c>
+      <c r="R5" s="14">
+        <v>627.79999999999995</v>
+      </c>
+      <c r="S5" s="14">
+        <v>702.7</v>
+      </c>
+      <c r="T5" s="14">
+        <v>554.5</v>
+      </c>
+      <c r="U5" s="14">
+        <v>595.29999999999995</v>
+      </c>
+      <c r="V5" s="14">
+        <v>614</v>
+      </c>
+      <c r="W5" s="14">
+        <v>665</v>
+      </c>
+      <c r="X5" s="14">
+        <v>509.1</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>638.5</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>632.79999999999995</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>699.1</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>716</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>738.1</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>701.1</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>760.4</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>640.70000000000005</v>
+      </c>
+      <c r="AG5" s="14">
+        <v>726.8</v>
+      </c>
+      <c r="AH5" s="14">
+        <v>739.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="14">
+        <v>525.9</v>
+      </c>
+      <c r="C6" s="14">
+        <v>542.9</v>
+      </c>
+      <c r="D6" s="14">
+        <v>512.70000000000005</v>
+      </c>
+      <c r="E6" s="14">
+        <v>480.1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>551.5</v>
+      </c>
+      <c r="G6" s="14">
+        <v>398.6</v>
+      </c>
+      <c r="H6" s="14">
+        <v>680.7</v>
+      </c>
+      <c r="I6" s="14">
+        <v>540.70000000000005</v>
+      </c>
+      <c r="J6" s="14">
+        <v>480.7</v>
+      </c>
+      <c r="K6" s="14">
+        <v>598.70000000000005</v>
+      </c>
+      <c r="L6" s="14">
+        <v>392.8</v>
+      </c>
+      <c r="M6" s="14">
+        <v>505.2</v>
+      </c>
+      <c r="N6" s="14">
+        <v>498.3</v>
+      </c>
+      <c r="O6" s="14">
+        <v>503.5</v>
+      </c>
+      <c r="P6" s="14">
+        <v>447.5</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>353.8</v>
+      </c>
+      <c r="R6" s="14">
+        <v>490.5</v>
+      </c>
+      <c r="S6" s="14">
+        <v>463.2</v>
+      </c>
+      <c r="T6" s="14">
+        <v>441.1</v>
+      </c>
+      <c r="U6" s="14">
+        <v>423.1</v>
+      </c>
+      <c r="V6" s="14">
+        <v>474.3</v>
+      </c>
+      <c r="W6" s="14">
+        <v>463.9</v>
+      </c>
+      <c r="X6" s="14">
+        <v>476.2</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>397.6</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>508.5</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>586.1</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>482.2</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>581.20000000000005</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>621.70000000000005</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>582.70000000000005</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>692.4</v>
+      </c>
+      <c r="AG6" s="14">
+        <v>631.79999999999995</v>
+      </c>
+      <c r="AH6" s="14">
+        <v>494.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="14">
+        <v>601</v>
+      </c>
+      <c r="C7" s="14">
+        <v>501.6</v>
+      </c>
+      <c r="D7" s="14">
+        <v>525.29999999999995</v>
+      </c>
+      <c r="E7" s="14">
+        <v>603.1</v>
+      </c>
+      <c r="F7" s="14">
+        <v>517.29999999999995</v>
+      </c>
+      <c r="G7" s="14">
+        <v>539.79999999999995</v>
+      </c>
+      <c r="H7" s="14">
+        <v>602.6</v>
+      </c>
+      <c r="I7" s="14">
+        <v>589.20000000000005</v>
+      </c>
+      <c r="J7" s="14">
+        <v>545.5</v>
+      </c>
+      <c r="K7" s="14">
+        <v>591.29999999999995</v>
+      </c>
+      <c r="L7" s="14">
+        <v>548.9</v>
+      </c>
+      <c r="M7" s="14">
+        <v>490</v>
+      </c>
+      <c r="N7" s="14">
+        <v>460.1</v>
+      </c>
+      <c r="O7" s="14">
+        <v>535.29999999999995</v>
+      </c>
+      <c r="P7" s="14">
+        <v>535.6</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>487.9</v>
+      </c>
+      <c r="R7" s="14">
+        <v>552</v>
+      </c>
+      <c r="S7" s="14">
+        <v>509.2</v>
+      </c>
+      <c r="T7" s="14">
+        <v>520.79999999999995</v>
+      </c>
+      <c r="U7" s="14">
+        <v>462.5</v>
+      </c>
+      <c r="V7" s="14">
+        <v>524.9</v>
+      </c>
+      <c r="W7" s="14">
+        <v>549.1</v>
+      </c>
+      <c r="X7" s="14">
+        <v>544.9</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>508.2</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>593.9</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>604.4</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>605.9</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>562.70000000000005</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>457.7</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>607.29999999999995</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>591.4</v>
+      </c>
+      <c r="AG7" s="14">
+        <v>545.5</v>
+      </c>
+      <c r="AH7" s="14">
+        <v>584.20000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="14">
+        <v>428.3</v>
+      </c>
+      <c r="C8" s="14">
+        <v>402</v>
+      </c>
+      <c r="D8" s="14">
+        <v>496</v>
+      </c>
+      <c r="E8" s="14">
+        <v>470</v>
+      </c>
+      <c r="F8" s="14">
+        <v>467.8</v>
+      </c>
+      <c r="G8" s="14">
+        <v>511.8</v>
+      </c>
+      <c r="H8" s="14">
+        <v>557.6</v>
+      </c>
+      <c r="I8" s="14">
+        <v>554.5</v>
+      </c>
+      <c r="J8" s="14">
+        <v>552.20000000000005</v>
+      </c>
+      <c r="K8" s="14">
+        <v>447.6</v>
+      </c>
+      <c r="L8" s="14">
+        <v>575.1</v>
+      </c>
+      <c r="M8" s="14">
+        <v>529.4</v>
+      </c>
+      <c r="N8" s="14">
+        <v>485.4</v>
+      </c>
+      <c r="O8" s="14">
+        <v>501.7</v>
+      </c>
+      <c r="P8" s="14">
+        <v>444.4</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>573</v>
+      </c>
+      <c r="R8" s="14">
+        <v>534.29999999999995</v>
+      </c>
+      <c r="S8" s="14">
+        <v>506.5</v>
+      </c>
+      <c r="T8" s="14">
+        <v>512</v>
+      </c>
+      <c r="U8" s="14">
+        <v>510.6</v>
+      </c>
+      <c r="V8" s="14">
+        <v>487.6</v>
+      </c>
+      <c r="W8" s="14">
+        <v>479.4</v>
+      </c>
+      <c r="X8" s="14">
+        <v>555.1</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>533.79999999999995</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>535.6</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>530</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>552.70000000000005</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>537.20000000000005</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>582.79999999999995</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>605.4</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>595.6</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>517.1</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>593.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/maple.xlsx
+++ b/data/maple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/hans/workspace/Maple/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447B2A38-084D-A24E-A0C9-B19CE18FE536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBE408E-08BE-1B4B-BCF3-5833F587A6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{2377AB8F-E0E7-844C-9123-56B55A979ED9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2377AB8F-E0E7-844C-9123-56B55A979ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEF7CCE-2FB7-7740-AE04-089335F8A035}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -876,7 +876,7 @@
         <v>1989</v>
       </c>
       <c r="B2" s="3">
-        <v>32795</v>
+        <v>32804</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>2019</v>
       </c>
       <c r="B32" s="3">
-        <v>43752</v>
+        <v>43761</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>0</v>
@@ -17367,8 +17367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93040F24-14B4-5B4C-A31C-645C57383900}">
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH5" sqref="B5:AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/data/maple.xlsx
+++ b/data/maple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A39421B-DE9B-3E46-9B58-7F9B9F7848AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B336284-8D3A-4548-9348-C58E4CD7D2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{2377AB8F-E0E7-844C-9123-56B55A979ED9}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{2377AB8F-E0E7-844C-9123-56B55A979ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="90">
   <si>
     <t>-14일</t>
   </si>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEF7CCE-2FB7-7740-AE04-089335F8A035}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="A99" sqref="A2:A99"/>
+    <sheetView topLeftCell="A58" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1586,16 +1586,16 @@
         <v>1991</v>
       </c>
       <c r="B34" s="7">
-        <v>33323</v>
+        <v>33523</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>33336</v>
+        <v>33535</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1603,16 +1603,16 @@
         <v>1992</v>
       </c>
       <c r="B35" s="7">
-        <v>33678</v>
+        <v>33891</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D35" s="7">
-        <v>33691</v>
+        <v>33902</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1620,16 +1620,16 @@
         <v>1993</v>
       </c>
       <c r="B36" s="7">
-        <v>34049</v>
+        <v>34255</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D36" s="7">
-        <v>34059</v>
+        <v>34266</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1637,16 +1637,16 @@
         <v>1994</v>
       </c>
       <c r="B37" s="7">
-        <v>34420</v>
+        <v>34628</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D37" s="7">
-        <v>34429</v>
+        <v>34640</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1654,16 +1654,16 @@
         <v>1995</v>
       </c>
       <c r="B38" s="7">
-        <v>34782</v>
+        <v>34990</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D38" s="7">
-        <v>34788</v>
+        <v>35004</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1671,33 +1671,29 @@
         <v>1996</v>
       </c>
       <c r="B39" s="7">
-        <v>35154</v>
+        <v>35360</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="7">
-        <v>35166</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>74</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="6">
         <v>1997</v>
       </c>
       <c r="B40" s="7">
-        <v>35515</v>
+        <v>35721</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D40" s="7">
-        <v>35517</v>
+        <v>35729</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1705,16 +1701,16 @@
         <v>1998</v>
       </c>
       <c r="B41" s="7">
-        <v>35864</v>
+        <v>36092</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D41" s="7">
-        <v>35876</v>
+        <v>36100</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1722,13 +1718,13 @@
         <v>1999</v>
       </c>
       <c r="B42" s="7">
-        <v>36238</v>
+        <v>36461</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D42" s="7">
-        <v>36248</v>
+        <v>36465</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>16</v>
@@ -1739,16 +1735,16 @@
         <v>2000</v>
       </c>
       <c r="B43" s="7">
-        <v>36608</v>
+        <v>36818</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D43" s="7">
-        <v>36618</v>
+        <v>36825</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1756,16 +1752,16 @@
         <v>2001</v>
       </c>
       <c r="B44" s="7">
-        <v>36973</v>
+        <v>37186</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D44" s="7">
-        <v>36984</v>
+        <v>37194</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1773,13 +1769,13 @@
         <v>2002</v>
       </c>
       <c r="B45" s="7">
-        <v>37333</v>
+        <v>37547</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="7">
-        <v>37339</v>
+        <v>37556</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>20</v>
@@ -1790,16 +1786,16 @@
         <v>2003</v>
       </c>
       <c r="B46" s="7">
-        <v>37697</v>
+        <v>37920</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D46" s="7">
-        <v>37704</v>
+        <v>37940</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1807,16 +1803,16 @@
         <v>2004</v>
       </c>
       <c r="B47" s="7">
-        <v>38065</v>
+        <v>38285</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D47" s="7">
-        <v>38072</v>
+        <v>38300</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1824,16 +1820,16 @@
         <v>2005</v>
       </c>
       <c r="B48" s="7">
-        <v>38439</v>
+        <v>38647</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D48" s="7">
-        <v>38448</v>
+        <v>38658</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1841,16 +1837,16 @@
         <v>2006</v>
       </c>
       <c r="B49" s="7">
-        <v>38797</v>
+        <v>39019</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D49" s="7">
-        <v>38807</v>
+        <v>39031</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1858,16 +1854,16 @@
         <v>2007</v>
       </c>
       <c r="B50" s="7">
-        <v>39151</v>
+        <v>39391</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D50" s="7">
-        <v>39167</v>
+        <v>39399</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1875,16 +1871,16 @@
         <v>2008</v>
       </c>
       <c r="B51" s="7">
-        <v>39528</v>
+        <v>39749</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="7">
+        <v>39754</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D51" s="7">
-        <v>39533</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1892,16 +1888,16 @@
         <v>2009</v>
       </c>
       <c r="B52" s="7">
-        <v>39889</v>
+        <v>40106</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52" s="7">
-        <v>39895</v>
+        <v>40118</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1909,16 +1905,16 @@
         <v>2010</v>
       </c>
       <c r="B53" s="7">
-        <v>40252</v>
+        <v>40470</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D53" s="7">
-        <v>40264</v>
+        <v>40489</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1926,16 +1922,16 @@
         <v>2011</v>
       </c>
       <c r="B54" s="7">
-        <v>40632</v>
+        <v>40836</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D54" s="7">
-        <v>40639</v>
+        <v>40845</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1943,16 +1939,16 @@
         <v>2012</v>
       </c>
       <c r="B55" s="7">
-        <v>40996</v>
+        <v>41198</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D55" s="7">
-        <v>41002</v>
+        <v>41207</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1960,16 +1956,16 @@
         <v>2013</v>
       </c>
       <c r="B56" s="7">
-        <v>41354</v>
+        <v>41571</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" s="7">
-        <v>41368</v>
+        <v>41583</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1977,33 +1973,29 @@
         <v>2014</v>
       </c>
       <c r="B57" s="7">
-        <v>41717</v>
+        <v>41926</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="7">
-        <v>41720</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="6">
         <v>2015</v>
       </c>
       <c r="B58" s="7">
-        <v>42082</v>
+        <v>42292</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D58" s="7">
-        <v>42088</v>
+        <v>42317</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2011,13 +2003,13 @@
         <v>2016</v>
       </c>
       <c r="B59" s="7">
-        <v>42451</v>
+        <v>42665</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="7">
-        <v>42456</v>
+        <v>42673</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>7</v>
@@ -2028,16 +2020,16 @@
         <v>2017</v>
       </c>
       <c r="B60" s="7">
-        <v>42815</v>
+        <v>43032</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" s="7">
-        <v>42824</v>
+        <v>43039</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2045,16 +2037,16 @@
         <v>2018</v>
       </c>
       <c r="B61" s="7">
-        <v>43181</v>
+        <v>43394</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D61" s="7">
-        <v>43186</v>
+        <v>43401</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2062,16 +2054,16 @@
         <v>2019</v>
       </c>
       <c r="B62" s="7">
-        <v>43542</v>
+        <v>43756</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="7">
-        <v>43552</v>
+        <v>43767</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2079,16 +2071,16 @@
         <v>2020</v>
       </c>
       <c r="B63" s="7">
-        <v>43903</v>
+        <v>44127</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D63" s="7">
-        <v>43912</v>
+        <v>44144</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2096,16 +2088,16 @@
         <v>1990</v>
       </c>
       <c r="B64" s="7">
-        <v>32944</v>
+        <v>33148</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D64" s="7">
-        <v>32952</v>
+        <v>33166</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2113,16 +2105,16 @@
         <v>1991</v>
       </c>
       <c r="B65" s="7">
-        <v>33319</v>
+        <v>33530</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D65" s="7">
-        <v>33336</v>
+        <v>33539</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2130,16 +2122,16 @@
         <v>1992</v>
       </c>
       <c r="B66" s="7">
-        <v>33673</v>
+        <v>33877</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D66" s="7">
-        <v>33682</v>
+        <v>33899</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2147,16 +2139,16 @@
         <v>1993</v>
       </c>
       <c r="B67" s="7">
-        <v>34039</v>
+        <v>34242</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D67" s="7">
-        <v>34057</v>
+        <v>34261</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2164,16 +2156,16 @@
         <v>1994</v>
       </c>
       <c r="B68" s="7">
-        <v>34427</v>
+        <v>34616</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="D68" s="7">
-        <v>34434</v>
+        <v>34630</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2181,13 +2173,13 @@
         <v>1995</v>
       </c>
       <c r="B69" s="7">
-        <v>34776</v>
+        <v>34983</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D69" s="7">
-        <v>34788</v>
+        <v>34996</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>9</v>
@@ -2198,16 +2190,16 @@
         <v>1996</v>
       </c>
       <c r="B70" s="7">
-        <v>35153</v>
+        <v>35358</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D70" s="7">
-        <v>35164</v>
+        <v>35363</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2215,16 +2207,16 @@
         <v>1997</v>
       </c>
       <c r="B71" s="7">
-        <v>35514</v>
+        <v>35717</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D71" s="7">
-        <v>35519</v>
+        <v>35724</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2232,16 +2224,16 @@
         <v>1998</v>
       </c>
       <c r="B72" s="7">
-        <v>35871</v>
+        <v>36081</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D72" s="7">
-        <v>35879</v>
+        <v>36094</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2249,16 +2241,16 @@
         <v>1999</v>
       </c>
       <c r="B73" s="7">
-        <v>36245</v>
+        <v>36459</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D73" s="7">
-        <v>36253</v>
+        <v>36466</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2266,16 +2258,16 @@
         <v>2000</v>
       </c>
       <c r="B74" s="7">
-        <v>36607</v>
+        <v>36815</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D74" s="7">
-        <v>36617</v>
+        <v>36820</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2283,16 +2275,16 @@
         <v>2001</v>
       </c>
       <c r="B75" s="7">
-        <v>36976</v>
+        <v>37187</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D75" s="7">
-        <v>36986</v>
+        <v>37195</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2300,16 +2292,16 @@
         <v>2002</v>
       </c>
       <c r="B76" s="7">
-        <v>37331</v>
+        <v>37548</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D76" s="7">
-        <v>37340</v>
+        <v>37555</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2317,16 +2309,16 @@
         <v>2003</v>
       </c>
       <c r="B77" s="7">
-        <v>37704</v>
+        <v>37910</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D77" s="7">
-        <v>37712</v>
+        <v>37918</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2334,16 +2326,16 @@
         <v>2004</v>
       </c>
       <c r="B78" s="7">
-        <v>38066</v>
+        <v>38272</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="7">
-        <v>38075</v>
+        <v>38281</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2351,16 +2343,16 @@
         <v>2005</v>
       </c>
       <c r="B79" s="7">
-        <v>38439</v>
+        <v>38645</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D79" s="7">
-        <v>38450</v>
+        <v>38653</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2368,16 +2360,16 @@
         <v>2006</v>
       </c>
       <c r="B80" s="7">
-        <v>38800</v>
+        <v>39013</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D80" s="7">
-        <v>38810</v>
+        <v>39019</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2385,16 +2377,16 @@
         <v>2007</v>
       </c>
       <c r="B81" s="7">
-        <v>39161</v>
+        <v>39379</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D81" s="7">
-        <v>39170</v>
+        <v>39386</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2402,16 +2394,16 @@
         <v>2008</v>
       </c>
       <c r="B82" s="7">
-        <v>39524</v>
+        <v>39747</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D82" s="7">
-        <v>39537</v>
+        <v>39755</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2419,16 +2411,16 @@
         <v>1998</v>
       </c>
       <c r="B83" s="7">
-        <v>35874</v>
+        <v>36081</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D83" s="7">
-        <v>35882</v>
+        <v>36094</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2436,16 +2428,16 @@
         <v>1999</v>
       </c>
       <c r="B84" s="7">
-        <v>36245</v>
+        <v>36444</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D84" s="7">
-        <v>36255</v>
+        <v>36457</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2453,16 +2445,16 @@
         <v>2000</v>
       </c>
       <c r="B85" s="7">
-        <v>36613</v>
+        <v>36811</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D85" s="7">
-        <v>36622</v>
+        <v>36825</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2470,16 +2462,16 @@
         <v>2001</v>
       </c>
       <c r="B86" s="7">
-        <v>36979</v>
+        <v>37177</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D86" s="7">
-        <v>36985</v>
+        <v>37190</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2487,16 +2479,16 @@
         <v>2002</v>
       </c>
       <c r="B87" s="7">
-        <v>37328</v>
+        <v>37549</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D87" s="7">
-        <v>37335</v>
+        <v>37555</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2504,16 +2496,16 @@
         <v>2003</v>
       </c>
       <c r="B88" s="7">
-        <v>37699</v>
+        <v>37913</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D88" s="7">
-        <v>37712</v>
+        <v>37921</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2521,16 +2513,16 @@
         <v>2004</v>
       </c>
       <c r="B89" s="7">
-        <v>38061</v>
+        <v>38270</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" s="7">
-        <v>38075</v>
+        <v>38278</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2538,16 +2530,16 @@
         <v>2005</v>
       </c>
       <c r="B90" s="7">
-        <v>38431</v>
+        <v>38646</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D90" s="7">
-        <v>38451</v>
+        <v>38653</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2555,16 +2547,16 @@
         <v>2006</v>
       </c>
       <c r="B91" s="7">
-        <v>38795</v>
+        <v>39012</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D91" s="7">
-        <v>38805</v>
+        <v>39019</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2572,16 +2564,16 @@
         <v>2007</v>
       </c>
       <c r="B92" s="7">
-        <v>39152</v>
+        <v>39376</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D92" s="7">
-        <v>39171</v>
+        <v>39381</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2589,16 +2581,16 @@
         <v>2008</v>
       </c>
       <c r="B93" s="7">
-        <v>39517</v>
+        <v>39744</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="D93" s="7">
-        <v>39538</v>
+        <v>39749</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2606,16 +2598,16 @@
         <v>2009</v>
       </c>
       <c r="B94" s="7">
-        <v>39890</v>
+        <v>40106</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D94" s="7">
-        <v>39895</v>
+        <v>40114</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2623,16 +2615,16 @@
         <v>2010</v>
       </c>
       <c r="B95" s="7">
-        <v>40267</v>
+        <v>40471</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D95" s="7">
-        <v>40276</v>
+        <v>40479</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2640,16 +2632,16 @@
         <v>2011</v>
       </c>
       <c r="B96" s="7">
-        <v>40634</v>
+        <v>40834</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D96" s="7">
-        <v>40640</v>
+        <v>40840</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2657,16 +2649,16 @@
         <v>2012</v>
       </c>
       <c r="B97" s="7">
-        <v>41004</v>
+        <v>41197</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D97" s="7">
-        <v>41009</v>
+        <v>41208</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2674,16 +2666,16 @@
         <v>2013</v>
       </c>
       <c r="B98" s="7">
-        <v>41360</v>
+        <v>41566</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D98" s="7">
-        <v>41369</v>
+        <v>41575</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2691,16 +2683,16 @@
         <v>2014</v>
       </c>
       <c r="B99" s="7">
-        <v>41719</v>
+        <v>41930</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D99" s="7">
-        <v>41724</v>
+        <v>41939</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2713,7 +2705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E571C05-3040-D543-8831-8773DD8B429B}">
   <dimension ref="A1:E919"/>
   <sheetViews>
-    <sheetView topLeftCell="A904" zoomScale="89" workbookViewId="0">
+    <sheetView topLeftCell="A877" zoomScale="89" workbookViewId="0">
       <selection activeCell="D933" sqref="D933"/>
     </sheetView>
   </sheetViews>
@@ -26428,8 +26420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73CA918-A957-3046-B210-B982F44AADCF}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -28304,7 +28296,7 @@
   <dimension ref="A1:CU9"/>
   <sheetViews>
     <sheetView topLeftCell="CF1" workbookViewId="0">
-      <selection activeCell="CQ16" sqref="CQ16"/>
+      <selection activeCell="CO17" sqref="CO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -30222,8 +30214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EDC536-52FC-B147-A7B2-C788ACD426DB}">
   <dimension ref="A2:R153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="63" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView topLeftCell="A66" zoomScale="63" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102:N118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
